--- a/BalanceSheet/EQR_bal.xlsx
+++ b/BalanceSheet/EQR_bal.xlsx
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>372302000.0</v>
+        <v>372917000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>372302000.0</v>
@@ -3510,7 +3510,7 @@
         <v>8823000000.0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>9252000000.0</v>
+        <v>10019203000.0</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>8963159000.0</v>
@@ -3637,7 +3637,7 @@
         <v>8964000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>9369000000.0</v>
+        <v>10064956000.0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>8991936000.0</v>
